--- a/data/trans_orig/P16A_n_R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R3-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4796</v>
+        <v>5327</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001911592981175483</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009706422093871365</v>
+        <v>0.0107828002689612</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5842</v>
+        <v>4697</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002004809058945563</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0124973829678956</v>
+        <v>0.01004623499512823</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5710</v>
+        <v>6524</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001956912897398242</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005938466119030298</v>
+        <v>0.006784997239869642</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>493120</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>489268</v>
+        <v>488737</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>494064</v>
@@ -824,7 +824,7 @@
         <v>0.9980884070188245</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9902935779061287</v>
+        <v>0.9892171997310384</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>466552</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>461647</v>
+        <v>462792</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>467489</v>
@@ -845,7 +845,7 @@
         <v>0.9979951909410545</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9875026170321055</v>
+        <v>0.9899537650048718</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>959671</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>955843</v>
+        <v>955029</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>961553</v>
@@ -866,7 +866,7 @@
         <v>0.9980430871026018</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9940615338809702</v>
+        <v>0.9932150027601303</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5155</v>
+        <v>4468</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001199108511422037</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007008739631269729</v>
+        <v>0.006075113842787776</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6287</v>
+        <v>6338</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002882364469947621</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01005194450133492</v>
+        <v>0.01013317659856929</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -1003,19 +1003,19 @@
         <v>2685</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7997</v>
+        <v>8103</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001972715999229814</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0006383331844160907</v>
+        <v>0.0006356927788420371</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005875690225071829</v>
+        <v>0.005953628195538173</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>734607</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>730334</v>
+        <v>731021</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>735489</v>
@@ -1041,7 +1041,7 @@
         <v>0.998800891488578</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9929912603687304</v>
+        <v>0.9939248861572123</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>623691</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>619207</v>
+        <v>619156</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>625494</v>
@@ -1062,7 +1062,7 @@
         <v>0.9971176355300524</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9899480554986649</v>
+        <v>0.9898668234014307</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>1358297</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1352985</v>
+        <v>1352879</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1360113</v>
+        <v>1360117</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9980272840007702</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9941243097749282</v>
+        <v>0.994046371804462</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9993616668155839</v>
+        <v>0.999364307221158</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>2668</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7346</v>
+        <v>7687</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0041769459825405</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001355168093428483</v>
+        <v>0.001354910311749397</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01150196095545197</v>
+        <v>0.01203532633109791</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1199,19 +1199,19 @@
         <v>6072</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2300</v>
+        <v>2172</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13425</v>
+        <v>13118</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008803714980787712</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00333457985498318</v>
+        <v>0.003149037757046125</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01946327755487526</v>
+        <v>0.01901832246750281</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1220,19 +1220,19 @@
         <v>8740</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4044</v>
+        <v>4182</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15748</v>
+        <v>16083</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00657927878524439</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003043921227928484</v>
+        <v>0.003148242285820283</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01185495935929946</v>
+        <v>0.01210671136819513</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>636000</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>631322</v>
+        <v>630981</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>637802</v>
+        <v>637803</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9958230540174595</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9884980390445479</v>
+        <v>0.9879646736689019</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9986448319065715</v>
+        <v>0.9986450896882506</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>652</v>
@@ -1270,19 +1270,19 @@
         <v>683672</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>676319</v>
+        <v>676626</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>687444</v>
+        <v>687572</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9911962850192123</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9805367224451248</v>
+        <v>0.9809816775324963</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9966654201450168</v>
+        <v>0.9968509622429536</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1262</v>
@@ -1291,19 +1291,19 @@
         <v>1319672</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1312664</v>
+        <v>1312329</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1324368</v>
+        <v>1324230</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9934207212147557</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9881450406407005</v>
+        <v>0.987893288631805</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9969560787720715</v>
+        <v>0.9968517577141798</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>4816</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11547</v>
+        <v>13854</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009277657867022457</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002086000718380858</v>
+        <v>0.002078867772582556</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02224281891362389</v>
+        <v>0.02668654811945306</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1416,19 +1416,19 @@
         <v>10186</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5067</v>
+        <v>5205</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18103</v>
+        <v>18267</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01975493366766417</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009826247321313597</v>
+        <v>0.01009498598262256</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03510681793883675</v>
+        <v>0.03542534008095142</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1437,19 +1437,19 @@
         <v>15003</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8498</v>
+        <v>7992</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24449</v>
+        <v>24831</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01449855137528612</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008212520252693171</v>
+        <v>0.007722854058116535</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02362700135705496</v>
+        <v>0.0239966457517004</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>514331</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>507600</v>
+        <v>505293</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>518064</v>
+        <v>518068</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9907223421329775</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9777571810863761</v>
+        <v>0.9733134518805467</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9979139992816192</v>
+        <v>0.9979211322274174</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>492</v>
@@ -1487,19 +1487,19 @@
         <v>505456</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>497539</v>
+        <v>497375</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>510575</v>
+        <v>510437</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9802450663323359</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9648931820611633</v>
+        <v>0.9645746599190487</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9901737526786865</v>
+        <v>0.9899050140173774</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>972</v>
@@ -1508,19 +1508,19 @@
         <v>1019786</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1010340</v>
+        <v>1009958</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1026291</v>
+        <v>1026797</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9855014486247139</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.976372998642945</v>
+        <v>0.9760033542482995</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9917874797473069</v>
+        <v>0.9922771459418834</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>7034</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2877</v>
+        <v>2845</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14401</v>
+        <v>14082</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0181881560725437</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007438565471589015</v>
+        <v>0.007355659852338868</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03723954140691779</v>
+        <v>0.03641551311720074</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1633,19 +1633,19 @@
         <v>19852</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12394</v>
+        <v>12352</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30459</v>
+        <v>29960</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04914036463788036</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03067983879780633</v>
+        <v>0.03057522871824385</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07539593378776405</v>
+        <v>0.07416122259090255</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1654,19 +1654,19 @@
         <v>26886</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17479</v>
+        <v>18135</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38837</v>
+        <v>38728</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03400239827813144</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02210605535231364</v>
+        <v>0.02293591201383583</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04911758824201896</v>
+        <v>0.04897955031068729</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>379676</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>372309</v>
+        <v>372628</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>383833</v>
+        <v>383865</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9818118439274562</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9627604585930822</v>
+        <v>0.9635844868827985</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9925614345284108</v>
+        <v>0.9926443401476608</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>377</v>
@@ -1704,19 +1704,19 @@
         <v>384134</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>373527</v>
+        <v>374026</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>391592</v>
+        <v>391634</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9508596353621196</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9246040662122359</v>
+        <v>0.9258387774090979</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9693201612021936</v>
+        <v>0.9694247712817562</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>762</v>
@@ -1725,19 +1725,19 @@
         <v>763810</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>751859</v>
+        <v>751968</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>773217</v>
+        <v>772561</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9659976017218685</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9508824117579812</v>
+        <v>0.9510204496893125</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9778939446476863</v>
+        <v>0.9770640879861642</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>11635</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6560</v>
+        <v>6191</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18635</v>
+        <v>19062</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03976611150563741</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02242082842700347</v>
+        <v>0.02116098385543038</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06368995375480753</v>
+        <v>0.06515173681054857</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -1850,19 +1850,19 @@
         <v>23758</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15603</v>
+        <v>16184</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33544</v>
+        <v>34812</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06927810011354622</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04549842684601063</v>
+        <v>0.04719191441628273</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09781478022215501</v>
+        <v>0.1015113437310297</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -1871,19 +1871,19 @@
         <v>35393</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25802</v>
+        <v>25114</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48004</v>
+        <v>48463</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05569119971635852</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0405996267828439</v>
+        <v>0.03951744998725168</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07553597835063412</v>
+        <v>0.07625800414570499</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>280948</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>273948</v>
+        <v>273521</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286023</v>
+        <v>286392</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9602338884943626</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9363100462451924</v>
+        <v>0.9348482631894516</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9775791715729955</v>
+        <v>0.9788390161445698</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>346</v>
@@ -1921,19 +1921,19 @@
         <v>319176</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>309390</v>
+        <v>308122</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>327331</v>
+        <v>326750</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9307218998864538</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9021852197778452</v>
+        <v>0.8984886562689703</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9545015731539894</v>
+        <v>0.9528080855837174</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>636</v>
@@ -1942,19 +1942,19 @@
         <v>600124</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>587513</v>
+        <v>587054</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>609715</v>
+        <v>610403</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9443088002836415</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9244640216493655</v>
+        <v>0.9237419958542942</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9594003732171557</v>
+        <v>0.9604825500127482</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>20435</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13290</v>
+        <v>12816</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30082</v>
+        <v>29723</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09736526814937969</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06332199748123282</v>
+        <v>0.06106373224383559</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1433288331390328</v>
+        <v>0.1416178187127668</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2067,19 +2067,19 @@
         <v>24337</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15312</v>
+        <v>15580</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35577</v>
+        <v>34896</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07288488771066316</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04585650634044354</v>
+        <v>0.0466606183299688</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1065477002132206</v>
+        <v>0.1045070331461312</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>42</v>
@@ -2088,19 +2088,19 @@
         <v>44772</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31797</v>
+        <v>33273</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>57438</v>
+        <v>59517</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08233339984530887</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05847193888903113</v>
+        <v>0.06118664574565738</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1056249389542723</v>
+        <v>0.1094474066313108</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>189448</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>179801</v>
+        <v>180160</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>196593</v>
+        <v>197067</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9026347318506203</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8566711668609674</v>
+        <v>0.8583821812872333</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9366780025187672</v>
+        <v>0.9389362677561646</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>269</v>
@@ -2138,19 +2138,19 @@
         <v>309571</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>298331</v>
+        <v>299012</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>318596</v>
+        <v>318328</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9271151122893369</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8934522997867795</v>
+        <v>0.8954929668538691</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9541434936595569</v>
+        <v>0.9533393816700315</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>468</v>
@@ -2159,19 +2159,19 @@
         <v>499019</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>486353</v>
+        <v>484274</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>511994</v>
+        <v>510518</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9176666001546911</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8943750610457278</v>
+        <v>0.8905525933686893</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9415280611109691</v>
+        <v>0.9388133542543426</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>48414</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36773</v>
+        <v>37491</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63778</v>
+        <v>63100</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01477602252712973</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01122318022834878</v>
+        <v>0.01144238637360486</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01946498160689208</v>
+        <v>0.01925800713609086</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>84</v>
@@ -2284,19 +2284,19 @@
         <v>86946</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>69124</v>
+        <v>70220</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>107438</v>
+        <v>108831</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02572966005616997</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02045573238250396</v>
+        <v>0.02078010317046013</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03179400011348867</v>
+        <v>0.0322062430309303</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>134</v>
@@ -2305,19 +2305,19 @@
         <v>135360</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>111113</v>
+        <v>112029</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>158867</v>
+        <v>157395</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02033731232419787</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01669427122577981</v>
+        <v>0.01683195214914444</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02386913079493733</v>
+        <v>0.02364799133010926</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3228129</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3212765</v>
+        <v>3213443</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3239770</v>
+        <v>3239052</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9852239774728703</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9805350183931079</v>
+        <v>0.9807419928639091</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9887768197716511</v>
+        <v>0.988557613626395</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3213</v>
@@ -2355,19 +2355,19 @@
         <v>3292251</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3271759</v>
+        <v>3270366</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3310073</v>
+        <v>3308977</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9742703399438301</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9682059998865112</v>
+        <v>0.9677937569690697</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.979544267617496</v>
+        <v>0.9792198968295398</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6377</v>
@@ -2376,19 +2376,19 @@
         <v>6520381</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6496874</v>
+        <v>6498346</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6544628</v>
+        <v>6543712</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9796626876758021</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9761308692050616</v>
+        <v>0.9763520086698906</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.98330572877422</v>
+        <v>0.983168047850855</v>
       </c>
     </row>
     <row r="27">
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6184</v>
+        <v>7143</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004716536150901143</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01437476356401531</v>
+        <v>0.01660329126994972</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7181</v>
+        <v>6211</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00229449298070489</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008119596531153003</v>
+        <v>0.007022808244066705</v>
       </c>
     </row>
     <row r="5">
@@ -2799,7 +2799,7 @@
         <v>428201</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>424046</v>
+        <v>423087</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>430230</v>
@@ -2808,7 +2808,7 @@
         <v>0.9952834638490988</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9856252364359847</v>
+        <v>0.9833967087300503</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2820,7 +2820,7 @@
         <v>882347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>877195</v>
+        <v>878165</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>884376</v>
@@ -2829,7 +2829,7 @@
         <v>0.9977055070192951</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9918804034688471</v>
+        <v>0.9929771917559331</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12632</v>
+        <v>13776</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005661124353850536</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01838429065612043</v>
+        <v>0.0200494554831182</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2945,19 +2945,19 @@
         <v>3466</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10475</v>
+        <v>10200</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005679191803376667</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001456322528726442</v>
+        <v>0.001463636033242531</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01716470633027501</v>
+        <v>0.01671360576449769</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -2966,19 +2966,19 @@
         <v>7355</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2583</v>
+        <v>2012</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17277</v>
+        <v>17452</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005669623080464477</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001991179947753752</v>
+        <v>0.001550638567974001</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01331737381547606</v>
+        <v>0.01345242963172716</v>
       </c>
     </row>
     <row r="8">
@@ -2995,7 +2995,7 @@
         <v>683197</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>674455</v>
+        <v>673311</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>687087</v>
@@ -3004,7 +3004,7 @@
         <v>0.9943388756461494</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9816157093438798</v>
+        <v>0.9799505445168818</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3016,19 +3016,19 @@
         <v>606789</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>599780</v>
+        <v>600055</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>609366</v>
+        <v>609362</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9943208081966234</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9828352936697247</v>
+        <v>0.9832863942355021</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9985436774712736</v>
+        <v>0.9985363639667575</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1233</v>
@@ -3037,19 +3037,19 @@
         <v>1289987</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1280065</v>
+        <v>1279890</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1294759</v>
+        <v>1295330</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9943303769195355</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.986682626184524</v>
+        <v>0.9865475703682727</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9980088200522462</v>
+        <v>0.998449361432026</v>
       </c>
     </row>
     <row r="9">
@@ -3141,19 +3141,19 @@
         <v>4887</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1036</v>
+        <v>1060</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12898</v>
+        <v>12688</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007166908842115111</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001519684044620762</v>
+        <v>0.001553848581814762</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01891609621355631</v>
+        <v>0.01860719698708561</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3162,19 +3162,19 @@
         <v>10943</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5844</v>
+        <v>5220</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19012</v>
+        <v>18107</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01539426847880395</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008221737512636737</v>
+        <v>0.007342752128583822</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02674563047915942</v>
+        <v>0.02547224472123355</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -3183,19 +3183,19 @@
         <v>15830</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8918</v>
+        <v>8862</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25442</v>
+        <v>25042</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01136620808208607</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00640345431410417</v>
+        <v>0.006362850596077239</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01826792401961218</v>
+        <v>0.01798104055900317</v>
       </c>
     </row>
     <row r="11">
@@ -3212,19 +3212,19 @@
         <v>676976</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>668965</v>
+        <v>669175</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>680827</v>
+        <v>680803</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9928330911578849</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9810839037864431</v>
+        <v>0.9813928030129143</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9984803159553792</v>
+        <v>0.9984461514181852</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>656</v>
@@ -3233,19 +3233,19 @@
         <v>699907</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>691838</v>
+        <v>692743</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>705006</v>
+        <v>705630</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.984605731521196</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9732543695208405</v>
+        <v>0.9745277552787679</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9917782624873633</v>
+        <v>0.9926572478714201</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1303</v>
@@ -3254,19 +3254,19 @@
         <v>1376882</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1367270</v>
+        <v>1367670</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1383794</v>
+        <v>1383850</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9886337919179139</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.98173207598039</v>
+        <v>0.9820189594409968</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9935965456858958</v>
+        <v>0.9936371494039228</v>
       </c>
     </row>
     <row r="12">
@@ -3358,19 +3358,19 @@
         <v>6217</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2087</v>
+        <v>2041</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13904</v>
+        <v>15852</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01011447588336168</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003396280708756473</v>
+        <v>0.003320073383663054</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02262273826022093</v>
+        <v>0.02579161807404875</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -3379,19 +3379,19 @@
         <v>16152</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9589</v>
+        <v>9539</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25472</v>
+        <v>26100</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02621287688635684</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01556095048893619</v>
+        <v>0.01548032607403809</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04133722640270299</v>
+        <v>0.04235610916408027</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -3400,19 +3400,19 @@
         <v>22369</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14570</v>
+        <v>13969</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35121</v>
+        <v>33391</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0181740249871649</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0118380636352191</v>
+        <v>0.01134938009404876</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02853512763582197</v>
+        <v>0.02712936226438442</v>
       </c>
     </row>
     <row r="14">
@@ -3429,19 +3429,19 @@
         <v>608400</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>600713</v>
+        <v>598765</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>612530</v>
+        <v>612576</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9898855241166383</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.977377261739779</v>
+        <v>0.9742083819259512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9966037192912435</v>
+        <v>0.9966799266163369</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>524</v>
@@ -3450,19 +3450,19 @@
         <v>600047</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>590727</v>
+        <v>590099</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>606610</v>
+        <v>606660</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9737871231136431</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.958662773597297</v>
+        <v>0.9576438908359197</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9844390495110638</v>
+        <v>0.9845196739259618</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1067</v>
@@ -3471,19 +3471,19 @@
         <v>1208447</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1195695</v>
+        <v>1197425</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1216246</v>
+        <v>1216847</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9818259750128351</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.971464872364178</v>
+        <v>0.9728706377356156</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9881619363647809</v>
+        <v>0.9886506199059512</v>
       </c>
     </row>
     <row r="15">
@@ -3575,19 +3575,19 @@
         <v>4450</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11020</v>
+        <v>10730</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01036369473566236</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002469193027754706</v>
+        <v>0.002443226484879588</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02566167023139086</v>
+        <v>0.02498762527880817</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -3596,19 +3596,19 @@
         <v>29788</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19608</v>
+        <v>21228</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40016</v>
+        <v>42000</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06652066298731911</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04378692061308213</v>
+        <v>0.04740435907886895</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08936112416796177</v>
+        <v>0.09379286695224696</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -3617,19 +3617,19 @@
         <v>34238</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23386</v>
+        <v>25006</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47059</v>
+        <v>49191</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03903019549866941</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02665850579078064</v>
+        <v>0.0285052503356571</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05364534735185642</v>
+        <v>0.05607517757449144</v>
       </c>
     </row>
     <row r="17">
@@ -3646,19 +3646,19 @@
         <v>424979</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>418409</v>
+        <v>418699</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>428369</v>
+        <v>428380</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9896363052643377</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9743383297686091</v>
+        <v>0.9750123747211917</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9975308069722454</v>
+        <v>0.9975567735151204</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>377</v>
@@ -3667,19 +3667,19 @@
         <v>418012</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>407784</v>
+        <v>405800</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>428192</v>
+        <v>426572</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9334793370126809</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9106388758320383</v>
+        <v>0.9062071330477529</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9562130793869179</v>
+        <v>0.9525956409211309</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>766</v>
@@ -3688,19 +3688,19 @@
         <v>842991</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>830170</v>
+        <v>828038</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>853843</v>
+        <v>852223</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9609698045013306</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9463546526481436</v>
+        <v>0.9439248224255106</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9733414942092193</v>
+        <v>0.9714947496643432</v>
       </c>
     </row>
     <row r="18">
@@ -3792,19 +3792,19 @@
         <v>15433</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8226</v>
+        <v>8238</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25261</v>
+        <v>26046</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04981984840858514</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02655435312223539</v>
+        <v>0.02659320170926678</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08154289443940159</v>
+        <v>0.08407710106150219</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -3813,19 +3813,19 @@
         <v>45456</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34270</v>
+        <v>32961</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60520</v>
+        <v>59078</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.128406848290275</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09680908914650854</v>
+        <v>0.09311171107929592</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1709617269736494</v>
+        <v>0.1668875601268828</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>56</v>
@@ -3834,19 +3834,19 @@
         <v>60889</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46442</v>
+        <v>46116</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76868</v>
+        <v>77187</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09173040936032724</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06996578603848255</v>
+        <v>0.06947477450098706</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1158026810040732</v>
+        <v>0.1162832035671681</v>
       </c>
     </row>
     <row r="20">
@@ -3863,19 +3863,19 @@
         <v>294353</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>284525</v>
+        <v>283740</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>301560</v>
+        <v>301548</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9501801515914149</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9184571055605983</v>
+        <v>0.9159228989384974</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9734456468777646</v>
+        <v>0.973406798290733</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>301</v>
@@ -3884,19 +3884,19 @@
         <v>308540</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>293476</v>
+        <v>294918</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>319726</v>
+        <v>321035</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8715931517097251</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8290382730263506</v>
+        <v>0.8331124398731171</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9031909108534915</v>
+        <v>0.9068882889207041</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>570</v>
@@ -3905,19 +3905,19 @@
         <v>602893</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>586914</v>
+        <v>586595</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>617340</v>
+        <v>617666</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9082695906396727</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8841973189959276</v>
+        <v>0.8837167964328319</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9300342139615175</v>
+        <v>0.930525225499013</v>
       </c>
     </row>
     <row r="21">
@@ -4009,19 +4009,19 @@
         <v>27017</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16804</v>
+        <v>18356</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38178</v>
+        <v>42209</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1081344093309697</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0672575946660344</v>
+        <v>0.07346764080895932</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1528014654887441</v>
+        <v>0.1689378105373219</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -4030,19 +4030,19 @@
         <v>69297</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>54111</v>
+        <v>54917</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86356</v>
+        <v>86636</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1781503380352159</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1391093519669337</v>
+        <v>0.1411814567149086</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2220074435955371</v>
+        <v>0.222726809527507</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>86</v>
@@ -4051,19 +4051,19 @@
         <v>96314</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>78746</v>
+        <v>76775</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>117453</v>
+        <v>113659</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1507666152617889</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1232652434460493</v>
+        <v>0.1201800049149417</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1838557012445651</v>
+        <v>0.1779179648158591</v>
       </c>
     </row>
     <row r="23">
@@ -4080,19 +4080,19 @@
         <v>222834</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>211673</v>
+        <v>207642</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>233047</v>
+        <v>231495</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8918655906690303</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8471985345112557</v>
+        <v>0.831062189462678</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9327424053339654</v>
+        <v>0.9265323591910406</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>287</v>
@@ -4101,19 +4101,19 @@
         <v>319682</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>302623</v>
+        <v>302343</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>334868</v>
+        <v>334062</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.821849661964784</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7779925564044629</v>
+        <v>0.7772731904724931</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8608906480330663</v>
+        <v>0.8588185432850916</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>486</v>
@@ -4122,19 +4122,19 @@
         <v>542516</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>521377</v>
+        <v>525171</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>560084</v>
+        <v>562055</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8492333847382111</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8161442987554347</v>
+        <v>0.8220820351841409</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8767347565539506</v>
+        <v>0.8798199950850583</v>
       </c>
     </row>
     <row r="24">
@@ -4226,19 +4226,19 @@
         <v>61895</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>45717</v>
+        <v>45518</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80250</v>
+        <v>80822</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01806200773201485</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01334097054065172</v>
+        <v>0.01328310100913626</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02341855380116064</v>
+        <v>0.02358539578053638</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>166</v>
@@ -4247,19 +4247,19 @@
         <v>177131</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>151162</v>
+        <v>150557</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>205659</v>
+        <v>204084</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04977940768485412</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04248134640155079</v>
+        <v>0.04231144856261884</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05779687767814759</v>
+        <v>0.05735410153037578</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>217</v>
@@ -4268,19 +4268,19 @@
         <v>239025</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>207961</v>
+        <v>208872</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>275036</v>
+        <v>273415</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.034219329349839</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02977215403099625</v>
+        <v>0.0299025460391752</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03937474411350065</v>
+        <v>0.03914267254379527</v>
       </c>
     </row>
     <row r="26">
@@ -4297,19 +4297,19 @@
         <v>3364884</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3346529</v>
+        <v>3345957</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3381062</v>
+        <v>3381261</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9819379922679852</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9765814461988394</v>
+        <v>0.9764146042194634</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9866590294593481</v>
+        <v>0.9867168989908637</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3132</v>
@@ -4318,19 +4318,19 @@
         <v>3381178</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3352650</v>
+        <v>3354225</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3407147</v>
+        <v>3407752</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9502205923151459</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9422031223218522</v>
+        <v>0.9426458984696242</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9575186535984492</v>
+        <v>0.9576885514373811</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6290</v>
@@ -4339,19 +4339,19 @@
         <v>6746063</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6710052</v>
+        <v>6711673</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6777127</v>
+        <v>6776216</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.965780670650161</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9606252558864993</v>
+        <v>0.9608573274562047</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9702278459690037</v>
+        <v>0.9700974539608248</v>
       </c>
     </row>
     <row r="27">
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4557</v>
+        <v>5465</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001635994228280352</v>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007717692129769238</v>
+        <v>0.009255064569412391</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -4876,19 +4876,19 @@
         <v>2825</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8400</v>
+        <v>7679</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005012377255351311</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001608289043605758</v>
+        <v>0.001605530142004313</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01490609329539726</v>
+        <v>0.01362611317507763</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -4897,19 +4897,19 @@
         <v>3791</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9419</v>
+        <v>8633</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003284758065033564</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0008343152302480317</v>
+        <v>0.0008327107683887347</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008161554253097024</v>
+        <v>0.00748043316707643</v>
       </c>
     </row>
     <row r="8">
@@ -4926,7 +4926,7 @@
         <v>589530</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>585939</v>
+        <v>585031</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -4935,7 +4935,7 @@
         <v>0.9983640057717197</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9922823078702306</v>
+        <v>0.9907449354305874</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4947,19 +4947,19 @@
         <v>560719</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>555144</v>
+        <v>555865</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>562638</v>
+        <v>562639</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9949876227446487</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9850939067046027</v>
+        <v>0.9863738868249223</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9983917109563942</v>
+        <v>0.9983944698579957</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1142</v>
@@ -4968,19 +4968,19 @@
         <v>1150249</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1144621</v>
+        <v>1145407</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1153077</v>
+        <v>1153079</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9967152419349664</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9918384457469031</v>
+        <v>0.9925195668329237</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.999165684769752</v>
+        <v>0.9991672892316112</v>
       </c>
     </row>
     <row r="9">
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6516</v>
+        <v>5711</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002839423816415693</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009851853781863365</v>
+        <v>0.008635250611955797</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6571</v>
+        <v>6365</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001411484397860643</v>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004939008631839988</v>
+        <v>0.004784120667216089</v>
       </c>
     </row>
     <row r="11">
@@ -5148,7 +5148,7 @@
         <v>659508</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>654870</v>
+        <v>655675</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>661386</v>
@@ -5157,7 +5157,7 @@
         <v>0.9971605761835843</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9901481462181368</v>
+        <v>0.9913647493880442</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -5169,7 +5169,7 @@
         <v>1328605</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1323912</v>
+        <v>1324118</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>1330483</v>
@@ -5178,7 +5178,7 @@
         <v>0.9985885156021393</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.99506099136816</v>
+        <v>0.9952158793327842</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4827</v>
+        <v>5931</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001677266025643977</v>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.00747215385168316</v>
+        <v>0.009180257334254045</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -5294,19 +5294,19 @@
         <v>18238</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10908</v>
+        <v>10462</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28266</v>
+        <v>28320</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02809777001627155</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01680484010389992</v>
+        <v>0.01611902691108674</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0435476334524796</v>
+        <v>0.04363132914879746</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -5315,19 +5315,19 @@
         <v>19321</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12058</v>
+        <v>11650</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29364</v>
+        <v>29267</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01491841009807185</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009309961861755065</v>
+        <v>0.00899544096724429</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02267295087750732</v>
+        <v>0.02259765850750932</v>
       </c>
     </row>
     <row r="14">
@@ -5344,7 +5344,7 @@
         <v>644964</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>641221</v>
+        <v>640117</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>646048</v>
@@ -5353,7 +5353,7 @@
         <v>0.998322733974356</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9925278461483172</v>
+        <v>0.9908197426657447</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -5365,19 +5365,19 @@
         <v>630839</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>620811</v>
+        <v>620757</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>638169</v>
+        <v>638615</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9719022299837284</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9564523665475203</v>
+        <v>0.9563686708512025</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9831951598961001</v>
+        <v>0.9838809730889132</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1166</v>
@@ -5386,19 +5386,19 @@
         <v>1275804</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1265761</v>
+        <v>1265858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1283067</v>
+        <v>1283475</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9850815899019282</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9773270491224925</v>
+        <v>0.9774023414924904</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.990690038138245</v>
+        <v>0.9910045590327556</v>
       </c>
     </row>
     <row r="15">
@@ -5490,19 +5490,19 @@
         <v>12163</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5814</v>
+        <v>5733</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21386</v>
+        <v>20764</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0254499708632471</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01216477097431531</v>
+        <v>0.01199546512855799</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0447485059503915</v>
+        <v>0.04344589993119714</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -5511,19 +5511,19 @@
         <v>32540</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23041</v>
+        <v>22747</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46374</v>
+        <v>45379</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06549358482212103</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04637441937318455</v>
+        <v>0.04578236333797214</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09333687161930714</v>
+        <v>0.09133370208568632</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -5532,19 +5532,19 @@
         <v>44703</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31680</v>
+        <v>32598</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59868</v>
+        <v>60189</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04586062244487929</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03250048951527156</v>
+        <v>0.03344214307290717</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06141761376065755</v>
+        <v>0.06174663806995374</v>
       </c>
     </row>
     <row r="17">
@@ -5561,19 +5561,19 @@
         <v>465755</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>456532</v>
+        <v>457154</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>472104</v>
+        <v>472185</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9745500291367529</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9552514940496085</v>
+        <v>0.9565541000688031</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9878352290256848</v>
+        <v>0.988004534871442</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>404</v>
@@ -5582,19 +5582,19 @@
         <v>464309</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>450475</v>
+        <v>451470</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>473808</v>
+        <v>474102</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9345064151778789</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.906663128380693</v>
+        <v>0.9086662979143139</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9536255806268156</v>
+        <v>0.9542176366620279</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>818</v>
@@ -5603,19 +5603,19 @@
         <v>930064</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>914899</v>
+        <v>914578</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>943087</v>
+        <v>942169</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9541393775551207</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9385823862393424</v>
+        <v>0.9382533619300463</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9674995104847285</v>
+        <v>0.9665578569270928</v>
       </c>
     </row>
     <row r="18">
@@ -5707,19 +5707,19 @@
         <v>20490</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12557</v>
+        <v>12856</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29738</v>
+        <v>29164</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06128610445238605</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03755942297763239</v>
+        <v>0.03845327440356951</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08894708799894248</v>
+        <v>0.08723143872248679</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -5728,19 +5728,19 @@
         <v>41581</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30312</v>
+        <v>29955</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55208</v>
+        <v>55257</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1100709035087627</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08024211207212036</v>
+        <v>0.07929539761041263</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1461454685419439</v>
+        <v>0.1462749385729497</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>60</v>
@@ -5749,19 +5749,19 @@
         <v>62070</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48208</v>
+        <v>48000</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80025</v>
+        <v>79165</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08716624823357219</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06769890205048243</v>
+        <v>0.06740696049624567</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1123804462545815</v>
+        <v>0.1111730461423201</v>
       </c>
     </row>
     <row r="20">
@@ -5778,19 +5778,19 @@
         <v>313840</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>304592</v>
+        <v>305166</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>321773</v>
+        <v>321474</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.938713895547614</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9110529120010575</v>
+        <v>0.9127685612775133</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9624405770223675</v>
+        <v>0.9615467255964308</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>314</v>
@@ -5799,19 +5799,19 @@
         <v>336181</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>322554</v>
+        <v>322505</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>347450</v>
+        <v>347807</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8899290964912373</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8538545314580561</v>
+        <v>0.8537250614270503</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9197578879278796</v>
+        <v>0.9207046023895873</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>619</v>
@@ -5820,19 +5820,19 @@
         <v>650022</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>632067</v>
+        <v>632927</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>663884</v>
+        <v>664092</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9128337517664278</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8876195537454183</v>
+        <v>0.8888269538576787</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9323010979495173</v>
+        <v>0.9325930395037533</v>
       </c>
     </row>
     <row r="21">
@@ -5924,19 +5924,19 @@
         <v>21561</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14100</v>
+        <v>14952</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30264</v>
+        <v>31065</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08389372190321369</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05486234206079904</v>
+        <v>0.05818096320123538</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1177609619887119</v>
+        <v>0.1208763645582824</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -5945,19 +5945,19 @@
         <v>56151</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41088</v>
+        <v>42873</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72622</v>
+        <v>75134</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.140318765168253</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1026776257217963</v>
+        <v>0.10713673501467</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1814790621839835</v>
+        <v>0.1877558359100957</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>69</v>
@@ -5966,19 +5966,19 @@
         <v>77712</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>61837</v>
+        <v>62250</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>97767</v>
+        <v>96002</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1182526490696288</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09409676720382303</v>
+        <v>0.0947255121412192</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1487700739714319</v>
+        <v>0.1460841953538066</v>
       </c>
     </row>
     <row r="23">
@@ -5995,19 +5995,19 @@
         <v>235437</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>226734</v>
+        <v>225933</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>242898</v>
+        <v>242046</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9161062780967864</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8822390380112876</v>
+        <v>0.8791236354417178</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9451376579392007</v>
+        <v>0.9418190367987646</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>257</v>
@@ -6016,19 +6016,19 @@
         <v>344018</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>327547</v>
+        <v>325035</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>359081</v>
+        <v>357296</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.859681234831747</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8185209378160166</v>
+        <v>0.8122441640899051</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8973223742782037</v>
+        <v>0.8928632649853301</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>534</v>
@@ -6037,19 +6037,19 @@
         <v>579455</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>559400</v>
+        <v>561165</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>595330</v>
+        <v>594917</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8817473509303713</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8512299260285682</v>
+        <v>0.8539158046461935</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.905903232796177</v>
+        <v>0.9052744878587808</v>
       </c>
     </row>
     <row r="24">
@@ -6141,19 +6141,19 @@
         <v>56263</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43132</v>
+        <v>42591</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>72931</v>
+        <v>72328</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01657546778271118</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01270713609225152</v>
+        <v>0.01254758282162147</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02148602713303938</v>
+        <v>0.02130844137025758</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>135</v>
@@ -6162,19 +6162,19 @@
         <v>153213</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>131215</v>
+        <v>129418</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>183773</v>
+        <v>182524</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04322491113654393</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03701900656713414</v>
+        <v>0.03651188979855127</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05184668401652524</v>
+        <v>0.05149443638605214</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>192</v>
@@ -6183,19 +6183,19 @@
         <v>209475</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>179729</v>
+        <v>181583</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>239765</v>
+        <v>241578</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03018860177585751</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0259017388567377</v>
+        <v>0.0261688938662226</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0345538006209021</v>
+        <v>0.03481505442303424</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>3338087</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3321419</v>
+        <v>3322022</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3351218</v>
+        <v>3351759</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9834245322172889</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9785139728669606</v>
+        <v>0.9786915586297424</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9872928639077485</v>
+        <v>0.9874524171783786</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3203</v>
@@ -6233,19 +6233,19 @@
         <v>3391329</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3360769</v>
+        <v>3362018</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3413327</v>
+        <v>3415124</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9567750888634561</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9481533159834745</v>
+        <v>0.9485055636139477</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9629809934328657</v>
+        <v>0.9634881102014486</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6377</v>
@@ -6254,19 +6254,19 @@
         <v>6729417</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6699127</v>
+        <v>6697314</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6759163</v>
+        <v>6757309</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9698113982241425</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9654461993790979</v>
+        <v>0.9651849455769658</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9740982611432623</v>
+        <v>0.9738311061337773</v>
       </c>
     </row>
     <row r="27">
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12398</v>
+        <v>12285</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00560582771253704</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03420054165128938</v>
+        <v>0.03388900566679612</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13362</v>
+        <v>10450</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002638149273512037</v>
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01734608376044152</v>
+        <v>0.01356651260299147</v>
       </c>
     </row>
     <row r="5">
@@ -6677,7 +6677,7 @@
         <v>360480</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>350114</v>
+        <v>350227</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
@@ -6686,7 +6686,7 @@
         <v>0.994394172287463</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9657994583487106</v>
+        <v>0.9661109943332037</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6698,16 +6698,16 @@
         <v>768273</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>756943</v>
+        <v>759855</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>770305</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.997361850726488</v>
+        <v>0.9973618507264879</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9826539162395573</v>
+        <v>0.9864334873970084</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9151</v>
+        <v>8968</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005330836441945525</v>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01918990584024131</v>
+        <v>0.01880503951550465</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -6826,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8202</v>
+        <v>6890</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003968908958116229</v>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01634705030333001</v>
+        <v>0.01373280766751178</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -6844,19 +6844,19 @@
         <v>4534</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11067</v>
+        <v>10986</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.004632586434491274</v>
+        <v>0.004632586434491275</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001170646346447572</v>
+        <v>0.001174380415238091</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01130912525764607</v>
+        <v>0.01122553801585311</v>
       </c>
     </row>
     <row r="8">
@@ -6873,7 +6873,7 @@
         <v>474348</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>467739</v>
+        <v>467922</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>476890</v>
@@ -6882,7 +6882,7 @@
         <v>0.9946691635580545</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9808100941597575</v>
+        <v>0.9811949604844953</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6894,16 +6894,16 @@
         <v>499742</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>493531</v>
+        <v>494843</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>501733</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9960310910418836</v>
+        <v>0.9960310910418837</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9836529496966697</v>
+        <v>0.9862671923324894</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -6915,19 +6915,19 @@
         <v>974089</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>967556</v>
+        <v>967637</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>977477</v>
+        <v>977474</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9953674135655086</v>
+        <v>0.9953674135655088</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9886908747423541</v>
+        <v>0.9887744619841469</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9988293536535524</v>
+        <v>0.9988256195847619</v>
       </c>
     </row>
     <row r="9">
@@ -7019,19 +7019,19 @@
         <v>6454</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2486</v>
+        <v>2466</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14909</v>
+        <v>13894</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01039574391750368</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004004690955247638</v>
+        <v>0.003971556835677426</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02401356741755664</v>
+        <v>0.02237980667716316</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -7040,19 +7040,19 @@
         <v>10874</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6201</v>
+        <v>6391</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18023</v>
+        <v>18172</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01744885394786692</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00995096763637625</v>
+        <v>0.01025509605114617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02892118213216074</v>
+        <v>0.02915884966877227</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -7061,19 +7061,19 @@
         <v>17328</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10979</v>
+        <v>10984</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26255</v>
+        <v>26845</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0139289771329397</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008825012700965385</v>
+        <v>0.008829362337772241</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02110457535114959</v>
+        <v>0.02157884761467273</v>
       </c>
     </row>
     <row r="11">
@@ -7090,19 +7090,19 @@
         <v>614383</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>605928</v>
+        <v>606943</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>618351</v>
+        <v>618371</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9896042560824964</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9759864325824448</v>
+        <v>0.9776201933228369</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9959953090447525</v>
+        <v>0.9960284431643228</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>833</v>
@@ -7111,19 +7111,19 @@
         <v>612319</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>605170</v>
+        <v>605021</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>616992</v>
+        <v>616802</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9825511460521331</v>
+        <v>0.982551146052133</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9710788178678391</v>
+        <v>0.9708411503312281</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9900490323636237</v>
+        <v>0.9897449039488537</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1374</v>
@@ -7132,19 +7132,19 @@
         <v>1226701</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1217774</v>
+        <v>1217184</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1233050</v>
+        <v>1233045</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9860710228670605</v>
+        <v>0.9860710228670601</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9788954246488516</v>
+        <v>0.9784211523853276</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9911749872990349</v>
+        <v>0.9911706376622278</v>
       </c>
     </row>
     <row r="12">
@@ -7236,19 +7236,19 @@
         <v>23326</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15533</v>
+        <v>15028</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34700</v>
+        <v>34688</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03329289307099292</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02217069610530023</v>
+        <v>0.02144952239220909</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04952806552430191</v>
+        <v>0.04951111177749765</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -7257,19 +7257,19 @@
         <v>40522</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31966</v>
+        <v>30918</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50963</v>
+        <v>50245</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05499055845941954</v>
+        <v>0.05499055845941953</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04337954943361658</v>
+        <v>0.0419570714639698</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06916039256070426</v>
+        <v>0.06818566426000242</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>84</v>
@@ -7278,19 +7278,19 @@
         <v>63847</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50831</v>
+        <v>51648</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>79608</v>
+        <v>79503</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04441544937282112</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03536027690574212</v>
+        <v>0.03592907177837413</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05537901722798993</v>
+        <v>0.05530595935482004</v>
       </c>
     </row>
     <row r="14">
@@ -7307,19 +7307,19 @@
         <v>677291</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>665917</v>
+        <v>665929</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>685084</v>
+        <v>685589</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9667071069290071</v>
+        <v>0.966707106929007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9504719344756981</v>
+        <v>0.9504888882225021</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9778293038946997</v>
+        <v>0.9785504776077908</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1079</v>
@@ -7328,19 +7328,19 @@
         <v>696364</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>685923</v>
+        <v>686641</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>704920</v>
+        <v>705968</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9450094415405805</v>
+        <v>0.9450094415405803</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9308396074392959</v>
+        <v>0.9318143357399976</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9566204505663835</v>
+        <v>0.9580429285360303</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1722</v>
@@ -7349,19 +7349,19 @@
         <v>1373657</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1357896</v>
+        <v>1358001</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1386673</v>
+        <v>1385856</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9555845506271787</v>
+        <v>0.9555845506271791</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9446209827720097</v>
+        <v>0.9446940406451798</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9646397230942576</v>
+        <v>0.9640709282216258</v>
       </c>
     </row>
     <row r="15">
@@ -7453,19 +7453,19 @@
         <v>36132</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26561</v>
+        <v>26475</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48572</v>
+        <v>47624</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05929652175690347</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04358959124318902</v>
+        <v>0.04344903710264629</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07971179076418466</v>
+        <v>0.07815514713711427</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>112</v>
@@ -7474,19 +7474,19 @@
         <v>67858</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>57163</v>
+        <v>56492</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>80814</v>
+        <v>80736</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1114525313620507</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09388686970078704</v>
+        <v>0.09278444961694993</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1327306207092258</v>
+        <v>0.1326036918532145</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>155</v>
@@ -7495,19 +7495,19 @@
         <v>103991</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>89664</v>
+        <v>87034</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>120668</v>
+        <v>120953</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08536401480878641</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07360349797784441</v>
+        <v>0.0714449513899454</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09905424579088742</v>
+        <v>0.09928775535520089</v>
       </c>
     </row>
     <row r="17">
@@ -7524,19 +7524,19 @@
         <v>573214</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>560774</v>
+        <v>561722</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>582785</v>
+        <v>582871</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9407034782430963</v>
+        <v>0.9407034782430965</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9202882092358154</v>
+        <v>0.9218448528628855</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9564104087568108</v>
+        <v>0.9565509628973536</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>890</v>
@@ -7545,19 +7545,19 @@
         <v>540997</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>528041</v>
+        <v>528119</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>551692</v>
+        <v>552363</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8885474686379491</v>
+        <v>0.8885474686379493</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8672693792907741</v>
+        <v>0.8673963081467856</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9061131302992131</v>
+        <v>0.9072155503830502</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1510</v>
@@ -7566,19 +7566,19 @@
         <v>1114211</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1097534</v>
+        <v>1097249</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1128538</v>
+        <v>1131168</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9146359851912135</v>
+        <v>0.9146359851912137</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9009457542091124</v>
+        <v>0.9007122446447995</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9263965020221556</v>
+        <v>0.9285550486100548</v>
       </c>
     </row>
     <row r="18">
@@ -7670,19 +7670,19 @@
         <v>40953</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32501</v>
+        <v>32197</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51269</v>
+        <v>51010</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1006009555902366</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07983829564025137</v>
+        <v>0.0790914485235345</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.125944269460497</v>
+        <v>0.1253067835898204</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>151</v>
@@ -7691,19 +7691,19 @@
         <v>81986</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>70708</v>
+        <v>70572</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>94600</v>
+        <v>94580</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1866864803250515</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1610056650335167</v>
+        <v>0.1606954363771256</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2154091277905961</v>
+        <v>0.215362030304319</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>217</v>
@@ -7712,19 +7712,19 @@
         <v>122939</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>108564</v>
+        <v>107314</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>138873</v>
+        <v>139305</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1452757374134626</v>
+        <v>0.1452757374134627</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1282887960899285</v>
+        <v>0.1268116597427202</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1641049606858579</v>
+        <v>0.1646156143848365</v>
       </c>
     </row>
     <row r="20">
@@ -7741,19 +7741,19 @@
         <v>366127</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>355811</v>
+        <v>356070</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>374579</v>
+        <v>374883</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8993990444097633</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.874055730539503</v>
+        <v>0.8746932164101797</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9201617043597488</v>
+        <v>0.9209085514764656</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>676</v>
@@ -7762,19 +7762,19 @@
         <v>357180</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>344566</v>
+        <v>344586</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>368458</v>
+        <v>368594</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8133135196749485</v>
+        <v>0.8133135196749486</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7845908722094039</v>
+        <v>0.784637969695681</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8389943349664835</v>
+        <v>0.8393045636228744</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1180</v>
@@ -7783,19 +7783,19 @@
         <v>723307</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>707373</v>
+        <v>706941</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>737682</v>
+        <v>738932</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8547242625865373</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.835895039314142</v>
+        <v>0.8353843856151636</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8717112039100715</v>
+        <v>0.8731883402572799</v>
       </c>
     </row>
     <row r="21">
@@ -7887,19 +7887,19 @@
         <v>58008</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47598</v>
+        <v>47512</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69016</v>
+        <v>69682</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.187003801863794</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1534437190956729</v>
+        <v>0.1531658990079992</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2224894244746152</v>
+        <v>0.224638031968294</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>295</v>
@@ -7908,19 +7908,19 @@
         <v>151349</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>136781</v>
+        <v>137297</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>165696</v>
+        <v>165989</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3257565456726956</v>
+        <v>0.3257565456726955</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2943998738601348</v>
+        <v>0.2955109634931501</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3566358036491925</v>
+        <v>0.3572669565481753</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>390</v>
@@ -7929,19 +7929,19 @@
         <v>209358</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>191099</v>
+        <v>190184</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>228577</v>
+        <v>227943</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2702061242749152</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2466405438312139</v>
+        <v>0.2454602550116017</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2950113371040185</v>
+        <v>0.2941935242007224</v>
       </c>
     </row>
     <row r="23">
@@ -7958,19 +7958,19 @@
         <v>252190</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>241182</v>
+        <v>240516</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>262600</v>
+        <v>262686</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8129961981362059</v>
+        <v>0.8129961981362058</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7775105755253846</v>
+        <v>0.7753619680317059</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8465562809043268</v>
+        <v>0.8468341009920007</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>586</v>
@@ -7979,19 +7979,19 @@
         <v>313260</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>298913</v>
+        <v>298620</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>327828</v>
+        <v>327312</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.6742434543273044</v>
+        <v>0.6742434543273043</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6433641963508075</v>
+        <v>0.6427330434518247</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7056001261398652</v>
+        <v>0.7044890365068498</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>949</v>
@@ -8000,19 +8000,19 @@
         <v>565449</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>546230</v>
+        <v>546864</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>583708</v>
+        <v>584623</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7297938757250848</v>
+        <v>0.7297938757250847</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7049886628959815</v>
+        <v>0.7058064757992774</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7533594561687861</v>
+        <v>0.754539744988398</v>
       </c>
     </row>
     <row r="24">
@@ -8104,19 +8104,19 @@
         <v>167415</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>143791</v>
+        <v>146826</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>190798</v>
+        <v>192641</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04738922611486249</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04070212654548613</v>
+        <v>0.0415612714241106</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05400811772009118</v>
+        <v>0.05452977761981796</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>638</v>
@@ -8125,19 +8125,19 @@
         <v>356614</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>326490</v>
+        <v>331329</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>383739</v>
+        <v>387319</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.095428934882403</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08736805592527144</v>
+        <v>0.0886627484541215</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1026875376253002</v>
+        <v>0.1036457414574683</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>871</v>
@@ -8146,19 +8146,19 @@
         <v>524028</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>487831</v>
+        <v>485780</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>560913</v>
+        <v>559197</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.07208375173044687</v>
+        <v>0.07208375173044686</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06710459366514861</v>
+        <v>0.06682238111472351</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07715745636858799</v>
+        <v>0.07692147858433436</v>
       </c>
     </row>
     <row r="26">
@@ -8175,19 +8175,19 @@
         <v>3365347</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3341964</v>
+        <v>3340121</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3388971</v>
+        <v>3385936</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9526107738851377</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9459918822799089</v>
+        <v>0.9454702223801821</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.959297873454514</v>
+        <v>0.9584387285758894</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4729</v>
@@ -8196,19 +8196,19 @@
         <v>3380340</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3353215</v>
+        <v>3349635</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3410464</v>
+        <v>3405625</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9045710651175971</v>
+        <v>0.904571065117597</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8973124623746999</v>
+        <v>0.8963542585425317</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9126319440747285</v>
+        <v>0.9113372515458784</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7872</v>
@@ -8217,19 +8217,19 @@
         <v>6745688</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6708803</v>
+        <v>6710519</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6781885</v>
+        <v>6783936</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9279162482695532</v>
+        <v>0.9279162482695531</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.922842543631412</v>
+        <v>0.9230785214156657</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9328954063348515</v>
+        <v>0.9331776188852764</v>
       </c>
     </row>
     <row r="27">
